--- a/data/trans_orig/P70A04_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499512E0-6A25-447D-AE0D-421070942E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AABFC1DE-2177-44EA-97F3-AA762B423A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1BBF41D-DF5E-4958-A6FC-3D44EE86A7E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DB1C62B-2335-44D3-9E9B-1CB1ED6CE7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>35,59%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>64,41%</t>
   </si>
   <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,334 +137,334 @@
     <t>61,76%</t>
   </si>
   <si>
-    <t>54,87%</t>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>37,77%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +473,109 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>56,26%</t>
   </si>
   <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
   </si>
   <si>
     <t>43,74%</t>
   </si>
   <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFD10F2-40DD-4E75-89CD-FF86A5CC952B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB4E033-29E7-4499-98D4-862429FCB7E5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1594,13 +1594,13 @@
         <v>35290</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -1609,13 +1609,13 @@
         <v>103148</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1630,13 @@
         <v>94140</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -1645,13 +1645,13 @@
         <v>66349</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -1660,13 +1660,13 @@
         <v>160489</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1734,13 @@
         <v>81914</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -1749,13 +1749,13 @@
         <v>24319</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -1764,13 +1764,13 @@
         <v>106233</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>19492</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -1800,13 +1800,13 @@
         <v>15132</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -1815,13 +1815,13 @@
         <v>34624</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>53232</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -1904,13 +1904,13 @@
         <v>35806</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -1919,13 +1919,13 @@
         <v>89038</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>51168</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -1955,13 +1955,13 @@
         <v>29535</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>79</v>
@@ -1970,13 +1970,13 @@
         <v>80703</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2044,13 @@
         <v>178536</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -2059,13 +2059,13 @@
         <v>86283</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>248</v>
@@ -2074,13 +2074,13 @@
         <v>264819</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,7 +2095,7 @@
         <v>83967</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>135</v>

--- a/data/trans_orig/P70A04_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AABFC1DE-2177-44EA-97F3-AA762B423A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{511E3214-296E-48BF-B5BF-1B374E14E06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DB1C62B-2335-44D3-9E9B-1CB1ED6CE7E9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15713902-0EC5-48FA-A6D6-FD9FF4ADDA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población según si hay un servicio de prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 35,4%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>35,59%</t>
   </si>
   <si>
-    <t>27,07%</t>
+    <t>27,78%</t>
   </si>
   <si>
     <t>45,17%</t>
@@ -83,19 +83,19 @@
     <t>18,84%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>54,83%</t>
   </si>
   <si>
-    <t>72,93%</t>
+    <t>72,22%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>61,76%</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>65,17%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
+    <t>34,83%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,106 +188,112 @@
     <t>56,72%</t>
   </si>
   <si>
-    <t>47,64%</t>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,55 +302,49 @@
     <t>80,78%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>76,92%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
+    <t>23,08%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +353,55 @@
     <t>50,99%</t>
   </si>
   <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>52,46%</t>
   </si>
   <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +410,55 @@
     <t>68,01%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>37,77%</t>
   </si>
   <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +467,109 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>56,26%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>43,74%</t>
   </si>
   <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB4E033-29E7-4499-98D4-862429FCB7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FC6122-7416-4E07-8AB4-FC15C7532FA6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1302,10 +1296,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1320,13 +1314,13 @@
         <v>99677</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -1335,13 +1329,13 @@
         <v>54439</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>146</v>
@@ -1350,13 +1344,13 @@
         <v>154116</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1412,7 +1406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1424,13 +1418,13 @@
         <v>68133</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -1439,13 +1433,13 @@
         <v>40415</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>104</v>
@@ -1454,13 +1448,13 @@
         <v>108548</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,13 +1469,13 @@
         <v>51996</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -1490,13 +1484,13 @@
         <v>22281</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -1505,13 +1499,13 @@
         <v>74276</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1579,13 +1573,13 @@
         <v>67858</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -1594,13 +1588,13 @@
         <v>35290</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -1609,13 +1603,13 @@
         <v>103148</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1624,13 @@
         <v>94140</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -1645,7 +1639,7 @@
         <v>66349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>81</v>
@@ -1752,10 +1746,10 @@
         <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -1764,13 +1758,13 @@
         <v>106233</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1779,13 @@
         <v>19492</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -1800,13 +1794,13 @@
         <v>15132</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -1815,13 +1809,13 @@
         <v>34624</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1883,13 @@
         <v>53232</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -1904,13 +1898,13 @@
         <v>35806</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -1919,13 +1913,13 @@
         <v>89038</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1934,13 @@
         <v>51168</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -1955,13 +1949,13 @@
         <v>29535</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>79</v>
@@ -1970,13 +1964,13 @@
         <v>80703</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,16 +2035,16 @@
         <v>165</v>
       </c>
       <c r="D22" s="7">
-        <v>178536</v>
+        <v>178535</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -2059,13 +2053,13 @@
         <v>86283</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>248</v>
@@ -2074,13 +2068,13 @@
         <v>264819</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2089,13 @@
         <v>83967</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -2110,13 +2104,13 @@
         <v>52378</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
@@ -2125,13 +2119,13 @@
         <v>136344</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2137,7 @@
         <v>246</v>
       </c>
       <c r="D24" s="7">
-        <v>262503</v>
+        <v>262502</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2193,13 @@
         <v>316797</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>116</v>
@@ -2214,13 +2208,13 @@
         <v>119301</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
@@ -2229,13 +2223,13 @@
         <v>436097</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2244,13 @@
         <v>120087</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -2265,13 +2259,13 @@
         <v>92751</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>205</v>
@@ -2280,13 +2274,13 @@
         <v>212839</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2348,13 @@
         <v>972221</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>419</v>
@@ -2369,13 +2363,13 @@
         <v>432331</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1343</v>
@@ -2384,13 +2378,13 @@
         <v>1404553</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2399,13 @@
         <v>601581</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -2420,13 +2414,13 @@
         <v>405661</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>962</v>
@@ -2435,13 +2429,13 @@
         <v>1007241</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A04_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{511E3214-296E-48BF-B5BF-1B374E14E06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{898183E3-9C76-4C8E-98FF-CCC77B84DE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15713902-0EC5-48FA-A6D6-FD9FF4ADDA9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93FAAC54-37FE-43EA-819E-4774B613E8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si hay un servicio de prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 35,4%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>35,59%</t>
   </si>
   <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>64,41%</t>
   </si>
   <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,55 @@
     <t>61,76%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>65,17%</t>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>34,83%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -188,55 +194,55 @@
     <t>56,72%</t>
   </si>
   <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>59,37%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>43,28%</t>
   </si>
   <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>40,63%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,55 +251,55 @@
     <t>41,89%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>58,11%</t>
   </si>
   <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,49 +308,55 @@
     <t>80,78%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>76,92%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>23,08%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -353,112 +365,106 @@
     <t>50,99%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>52,46%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>37,77%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -467,109 +473,109 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>56,26%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>43,74%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FC6122-7416-4E07-8AB4-FC15C7532FA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A53EC41-E53B-4D63-99C9-A46EA3A280D0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1296,10 +1302,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,13 +1320,13 @@
         <v>99677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -1329,13 +1335,13 @@
         <v>54439</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>146</v>
@@ -1344,13 +1350,13 @@
         <v>154116</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,7 +1412,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1418,13 +1424,13 @@
         <v>68133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -1433,13 +1439,13 @@
         <v>40415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>104</v>
@@ -1448,13 +1454,13 @@
         <v>108548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1475,13 @@
         <v>51996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -1484,13 +1490,13 @@
         <v>22281</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -1499,13 +1505,13 @@
         <v>74276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1567,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1573,13 +1579,13 @@
         <v>67858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -1588,13 +1594,13 @@
         <v>35290</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -1603,13 +1609,13 @@
         <v>103148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1630,13 @@
         <v>94140</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -1639,13 +1645,13 @@
         <v>66349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -1654,13 +1660,13 @@
         <v>160489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1728,13 +1734,13 @@
         <v>81914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -1743,13 +1749,13 @@
         <v>24319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -1758,13 +1764,13 @@
         <v>106233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1785,13 @@
         <v>19492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -1794,13 +1800,13 @@
         <v>15132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -1809,13 +1815,13 @@
         <v>34624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1889,13 @@
         <v>53232</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -1898,13 +1904,13 @@
         <v>35806</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -1913,13 +1919,13 @@
         <v>89038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>51168</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -1949,13 +1955,13 @@
         <v>29535</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>79</v>
@@ -1964,13 +1970,13 @@
         <v>80703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2035,16 +2041,16 @@
         <v>165</v>
       </c>
       <c r="D22" s="7">
-        <v>178535</v>
+        <v>178536</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -2053,13 +2059,13 @@
         <v>86283</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>248</v>
@@ -2068,13 +2074,13 @@
         <v>264819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2095,13 @@
         <v>83967</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -2104,13 +2110,13 @@
         <v>52378</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
@@ -2119,13 +2125,13 @@
         <v>136344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2143,7 @@
         <v>246</v>
       </c>
       <c r="D24" s="7">
-        <v>262502</v>
+        <v>262503</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2199,13 @@
         <v>316797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>116</v>
@@ -2208,13 +2214,13 @@
         <v>119301</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>424</v>
@@ -2223,13 +2229,13 @@
         <v>436097</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2250,13 @@
         <v>120087</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -2259,13 +2265,13 @@
         <v>92751</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>205</v>
@@ -2274,13 +2280,13 @@
         <v>212839</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2354,13 @@
         <v>972221</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>419</v>
@@ -2363,13 +2369,13 @@
         <v>432331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1343</v>
@@ -2378,13 +2384,13 @@
         <v>1404553</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>601581</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -2414,13 +2420,13 @@
         <v>405661</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>962</v>
@@ -2429,13 +2435,13 @@
         <v>1007241</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A04_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{898183E3-9C76-4C8E-98FF-CCC77B84DE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B43F1F-4078-43D9-B132-E8431A7D145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93FAAC54-37FE-43EA-819E-4774B613E8D8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BB2FC42E-1D2B-4D33-A244-E72AAA954D29}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A53EC41-E53B-4D63-99C9-A46EA3A280D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B75A81-B8E0-45F6-84F0-0E3AFD3A9E16}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
